--- a/산출물_프로젝트_스킬 관리/설계/AND-04.DB설계산출물/20200817__스킬관리상세팝업AND-04_테이블정의서_v0.2.xlsx
+++ b/산출물_프로젝트_스킬 관리/설계/AND-04.DB설계산출물/20200817__스킬관리상세팝업AND-04_테이블정의서_v0.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38376" windowHeight="16416" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38376" windowHeight="16416" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="겉표지" sheetId="1" r:id="rId1"/>
@@ -22,11 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
-  <si>
-    <t>프로젝트명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
   <si>
     <t>문서번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,10 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테이블정의서목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>개 정 이 력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,6 +297,18 @@
   </si>
   <si>
     <t>v0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMS 프로젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬관리상세팝업 테이블정의서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정헌철</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1032,7 +1036,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1043,7 +1047,7 @@
   <dimension ref="A2:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1054,14 +1058,14 @@
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.4">
       <c r="K2" s="1"/>
       <c r="L2" s="2" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="40.200000000000003" x14ac:dyDescent="0.4">
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="4" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1080,13 +1084,13 @@
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.4">
       <c r="K8" s="26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="26"/>
     </row>
     <row r="9" spans="1:12" ht="19.2" x14ac:dyDescent="0.4">
       <c r="K9" s="27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9" s="28"/>
     </row>
@@ -1104,7 +1108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1121,14 +1125,14 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="str">
         <f>겉표지!L2</f>
-        <v>프로젝트명</v>
+        <v>IMS 프로젝트</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6" t="str">
         <f>겉표지!L4</f>
-        <v>테이블정의서목록</v>
+        <v>스킬관리상세팝업 테이블정의서</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
@@ -1140,53 +1144,53 @@
     </row>
     <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="C4" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>7</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="22">
         <v>44060</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="22">
         <v>44138</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -1368,14 +1372,14 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="str">
         <f>겉표지!L2</f>
-        <v>프로젝트명</v>
+        <v>IMS 프로젝트</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="6" t="str">
         <f>겉표지!L4</f>
-        <v>테이블정의서목록</v>
+        <v>스킬관리상세팝업 테이블정의서</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1394,19 +1398,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="E4" s="19" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -1414,13 +1418,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" s="16"/>
     </row>
@@ -1519,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
@@ -1538,7 +1542,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -1550,41 +1554,41 @@
     </row>
     <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H3" s="22">
         <v>44060</v>
@@ -1592,11 +1596,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="C4" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -1606,10 +1612,10 @@
     </row>
     <row r="5" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="45"/>
       <c r="D5" s="45"/>
@@ -1620,16 +1626,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>29</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="33"/>
@@ -1641,7 +1647,7 @@
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="36"/>
@@ -1680,10 +1686,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
@@ -1695,7 +1701,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="43"/>
       <c r="B12" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
@@ -1707,7 +1713,7 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="43"/>
       <c r="B13" s="30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
@@ -1728,7 +1734,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1750,86 +1756,86 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="E17" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="F17" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="G17" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>38</v>
-      </c>
       <c r="H17" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G18" s="24"/>
       <c r="H18" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E20" s="25"/>
       <c r="F20" s="24"/>
@@ -1838,16 +1844,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="24"/>
@@ -1856,16 +1862,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
@@ -1874,16 +1880,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
@@ -1892,16 +1898,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
@@ -1910,16 +1916,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
@@ -1928,16 +1934,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
